--- a/OOPproj2002/src/pkg_camp/suggestions.xlsx
+++ b/OOPproj2002/src/pkg_camp/suggestions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="8">
   <si>
     <t>Camp Name</t>
   </si>
@@ -26,13 +26,16 @@
     <t>Approval Status</t>
   </si>
   <si>
-    <t>chicken rice</t>
+    <t>testsuggestion</t>
   </si>
   <si>
     <t>YCHERN</t>
   </si>
   <si>
-    <t>testsuggestion</t>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -77,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -119,23 +122,9 @@
         <v>5</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="b" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D4" t="b" s="0">
         <v>0</v>
       </c>
     </row>

--- a/OOPproj2002/src/pkg_camp/suggestions.xlsx
+++ b/OOPproj2002/src/pkg_camp/suggestions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="8">
   <si>
     <t>Camp Name</t>
   </si>

--- a/OOPproj2002/src/pkg_camp/suggestions.xlsx
+++ b/OOPproj2002/src/pkg_camp/suggestions.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Camp Name</t>
   </si>
@@ -24,18 +24,6 @@
   </si>
   <si>
     <t>Approval Status</t>
-  </si>
-  <si>
-    <t>testsuggestion</t>
-  </si>
-  <si>
-    <t>YCHERN</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -80,7 +68,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -100,34 +88,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="D2" t="b" s="0">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="D3" t="b" s="0">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
